--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G6_BACKLOG_V5.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G6_BACKLOG_V5.0.xlsx
@@ -1,14 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Clases\Modelos de Procesos\Proyecto\14765_G6_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B8A35F-BD88-4BE0-8DC5-8C92871AE9DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Backlog" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="sprint0" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="burdonchart" sheetId="3" r:id="rId6"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="sprint0" sheetId="2" r:id="rId2"/>
+    <sheet name="burdonchart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -57,9 +73,6 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>REQ002</t>
   </si>
   <si>
@@ -391,91 +404,101 @@
     <t xml:space="preserve">CONCLUSIÓN
 Al analizar el gráfico, se evidencia que el proyecto se llevó a cabo de manera ininterrumpida desde el inicio, y las horas laboradas diariamente fueron adecuadas para cumplir con la planificación temporal establecida.
 </t>
+  </si>
+  <si>
+    <t>Terminado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="17">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF2E75B5"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0066CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF0066CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
@@ -485,7 +508,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -519,7 +542,13 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -533,24 +562,33 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -560,14 +598,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -582,186 +624,156 @@
       <bottom style="thin">
         <color rgb="FF999999"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="57">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="2" pivot="0" name="burdonchart-style">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="burdonchart-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -778,10 +790,36 @@
           <c:val>
             <c:numRef>
               <c:f>burdonchart!$B$36:$G$36</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-190E-486A-A140-F10F43140D01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -799,11 +837,46 @@
           <c:val>
             <c:numRef>
               <c:f>burdonchart!$B$37:$G$37</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.9</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-190E-486A-A140-F10F43140D01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="108035336"/>
         <c:axId val="928263677"/>
       </c:lineChart>
@@ -828,15 +901,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="es-EC"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -845,7 +910,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -858,9 +923,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928263677"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="928263677"/>
@@ -903,15 +974,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="es-EC"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -936,9 +999,12 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="108035336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -956,24 +1022,24 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -982,9 +1048,15 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4810125" cy="2971800"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -993,7 +1065,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1003,16 +1075,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="N4:N8" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="N4:N8" headerRowCount="0">
   <tableColumns count="1">
-    <tableColumn name="Column1" id="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
   </tableColumns>
-  <tableStyleInfo name="burdonchart-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1202,29 +1274,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.38"/>
-    <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="11.25"/>
-    <col customWidth="1" min="4" max="4" width="64.0"/>
-    <col customWidth="1" min="5" max="5" width="82.25"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64" customWidth="1"/>
+    <col min="5" max="5" width="82.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1327,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1272,164 +1348,164 @@
         <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2413,34 +2489,34 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="12.63"/>
-    <col customWidth="1" min="3" max="3" width="45.25"/>
-    <col customWidth="1" min="4" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="55.13"/>
-    <col customWidth="1" min="6" max="6" width="82.25"/>
+    <col min="1" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+    <col min="6" max="6" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2451,22 +2527,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -2478,118 +2554,127 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B6" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="15">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="15">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="16">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14" t="s">
-        <v>51</v>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="14">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="I10" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
@@ -2600,904 +2685,964 @@
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>14</v>
+      <c r="I12" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="15">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="15">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="14">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="14" t="s">
-        <v>63</v>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="14">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="14"/>
+      <c r="I18" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="17" t="s">
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="G20" s="16"/>
+      <c r="H20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1">
       <c r="B21" s="10"/>
       <c r="C21" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B23" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="15">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="22">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B25" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="14">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B26" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="14">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="14">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+      <c r="I28" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1">
       <c r="B29" s="10"/>
       <c r="C29" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B30" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B31" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="22">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="21" t="s">
+      <c r="C31" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="22">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="14" t="s">
+      <c r="C32" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>51</v>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="H32" s="10"/>
-      <c r="I32" s="14">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="14"/>
+      <c r="I32" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="18" t="s">
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="D34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="F34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18" t="s">
+      <c r="G34" s="16"/>
+      <c r="H34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+      <c r="I34" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="B35" s="10"/>
       <c r="C35" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B36" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B37" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="22">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="21" t="s">
+      <c r="C37" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B38" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="22">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="14" t="s">
+      <c r="C38" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B39" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="14" t="s">
+      <c r="C39" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="22"/>
+      <c r="B43" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="14">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="24" t="s">
+      <c r="C43" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="28">
+        <v>2</v>
+      </c>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="22"/>
+      <c r="B44" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="28">
+        <v>1</v>
+      </c>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="22"/>
+      <c r="B45" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="28">
+        <v>2</v>
+      </c>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="28">
+        <v>3</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="26" t="s">
+      <c r="E48" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+    </row>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="26" t="s">
+      <c r="H49" s="22"/>
+      <c r="I49" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
-      <c r="B44" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="23"/>
-      <c r="B45" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="23"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23"/>
-      <c r="B46" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="28" t="s">
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+    </row>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="23"/>
-      <c r="B50" s="27" t="s">
+      <c r="C50" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="28">
+        <v>2</v>
+      </c>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+    </row>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A51" s="22"/>
+      <c r="B51" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="23"/>
-      <c r="B51" s="27" t="s">
+      <c r="C51" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="28">
+        <v>2</v>
+      </c>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+    </row>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A52" s="22"/>
+      <c r="B52" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="23"/>
-      <c r="B52" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="23"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="C52" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="28">
+        <v>2</v>
+      </c>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+    </row>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4424,21 +4569,6 @@
     <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C51:F51"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
@@ -4447,32 +4577,45 @@
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="2" width="24.75"/>
-    <col customWidth="1" min="3" max="11" width="12.63"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4486,1478 +4629,1496 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="C4" s="31">
+        <v>2</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1</v>
+      </c>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0</v>
+      </c>
+      <c r="N4" s="34">
+        <f t="shared" ref="N4:N32" si="0">SUM(D4:M4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="31">
+        <v>3</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="31">
+        <v>3</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
+        <v>0</v>
+      </c>
+      <c r="K7" s="32">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="35">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1</v>
+      </c>
+      <c r="E8" s="33">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33">
+        <v>1</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36">
+        <v>1</v>
+      </c>
+      <c r="L9" s="36">
+        <v>0</v>
+      </c>
+      <c r="M9" s="36">
+        <v>0</v>
+      </c>
+      <c r="N9" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="31">
+        <v>3</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="37">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37">
+        <v>1</v>
+      </c>
+      <c r="L10" s="36">
+        <v>1</v>
+      </c>
+      <c r="M10" s="37">
+        <v>0</v>
+      </c>
+      <c r="N10" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B11" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36">
+        <v>0</v>
+      </c>
+      <c r="K11" s="36">
+        <v>1</v>
+      </c>
+      <c r="L11" s="36">
+        <v>0</v>
+      </c>
+      <c r="M11" s="37">
+        <v>0</v>
+      </c>
+      <c r="N11" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="35">
+        <v>2</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0</v>
+      </c>
+      <c r="J12" s="36">
+        <v>1</v>
+      </c>
+      <c r="K12" s="37">
+        <v>1</v>
+      </c>
+      <c r="L12" s="36">
+        <v>0</v>
+      </c>
+      <c r="M12" s="36">
+        <v>0</v>
+      </c>
+      <c r="N12" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B13" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="35">
+        <v>3</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="36">
+        <v>1</v>
+      </c>
+      <c r="J13" s="37">
+        <v>2</v>
+      </c>
+      <c r="K13" s="37">
+        <v>1</v>
+      </c>
+      <c r="L13" s="36">
+        <v>0</v>
+      </c>
+      <c r="M13" s="36">
+        <v>0</v>
+      </c>
+      <c r="N13" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B14" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="31">
+        <v>3</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="36">
+        <v>0</v>
+      </c>
+      <c r="K14" s="36">
+        <v>1</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0</v>
+      </c>
+      <c r="M14" s="37">
+        <v>2</v>
+      </c>
+      <c r="N14" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B15" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="36">
+        <v>0</v>
+      </c>
+      <c r="K15" s="36">
+        <v>0</v>
+      </c>
+      <c r="L15" s="36">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37">
+        <v>0</v>
+      </c>
+      <c r="N15" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B16" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="35">
+        <v>2</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="36">
+        <v>0</v>
+      </c>
+      <c r="K16" s="36">
+        <v>0</v>
+      </c>
+      <c r="L16" s="36">
+        <v>1</v>
+      </c>
+      <c r="M16" s="37">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B17" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="35">
+        <v>2</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0</v>
+      </c>
+      <c r="J17" s="36">
+        <v>0</v>
+      </c>
+      <c r="K17" s="36">
+        <v>0</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0</v>
+      </c>
+      <c r="M17" s="37">
+        <v>1</v>
+      </c>
+      <c r="N17" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B18" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="35">
+        <v>3</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36">
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
+        <v>1</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0</v>
+      </c>
+      <c r="M18" s="37">
+        <v>1</v>
+      </c>
+      <c r="N18" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B19" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="35">
+        <v>2</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0</v>
+      </c>
+      <c r="J19" s="36">
+        <v>0</v>
+      </c>
+      <c r="K19" s="36">
+        <v>1</v>
+      </c>
+      <c r="L19" s="37">
+        <v>1</v>
+      </c>
+      <c r="M19" s="37">
+        <v>0</v>
+      </c>
+      <c r="N19" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B20" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="35">
+        <v>2</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37">
+        <v>1</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0</v>
+      </c>
+      <c r="L20" s="36">
+        <v>1</v>
+      </c>
+      <c r="M20" s="37">
+        <v>0</v>
+      </c>
+      <c r="N20" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B21" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="35">
+        <v>2</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0</v>
+      </c>
+      <c r="J21" s="36">
+        <v>0</v>
+      </c>
+      <c r="K21" s="36">
+        <v>0</v>
+      </c>
+      <c r="L21" s="36">
+        <v>1</v>
+      </c>
+      <c r="M21" s="37">
+        <v>0</v>
+      </c>
+      <c r="N21" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B22" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="35">
+        <v>2</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="36">
+        <v>0</v>
+      </c>
+      <c r="J22" s="36">
+        <v>0</v>
+      </c>
+      <c r="K22" s="37">
+        <v>1</v>
+      </c>
+      <c r="L22" s="36">
+        <v>1</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0</v>
+      </c>
+      <c r="N22" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B23" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="35">
+        <v>2</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="36">
+        <v>0</v>
+      </c>
+      <c r="J23" s="36">
+        <v>0</v>
+      </c>
+      <c r="K23" s="36">
+        <v>0</v>
+      </c>
+      <c r="L23" s="36">
+        <v>1</v>
+      </c>
+      <c r="M23" s="37">
+        <v>0</v>
+      </c>
+      <c r="N23" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B24" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="35">
+        <v>1</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="36">
+        <v>0</v>
+      </c>
+      <c r="J24" s="36">
+        <v>0</v>
+      </c>
+      <c r="K24" s="36">
+        <v>0</v>
+      </c>
+      <c r="L24" s="37">
+        <v>1</v>
+      </c>
+      <c r="M24" s="37">
+        <v>0</v>
+      </c>
+      <c r="N24" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B25" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="35">
+        <v>2</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="36">
+        <v>0</v>
+      </c>
+      <c r="J25" s="36">
+        <v>0</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
+      <c r="L25" s="37">
+        <v>1</v>
+      </c>
+      <c r="M25" s="37">
+        <v>0</v>
+      </c>
+      <c r="N25" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="42">
+        <v>2</v>
+      </c>
+      <c r="D26" s="43">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <v>0</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0</v>
+      </c>
+      <c r="G26" s="43">
+        <v>0</v>
+      </c>
+      <c r="H26" s="43">
+        <v>0</v>
+      </c>
+      <c r="I26" s="43">
+        <v>0</v>
+      </c>
+      <c r="J26" s="43">
+        <v>0</v>
+      </c>
+      <c r="K26" s="43">
+        <v>1</v>
+      </c>
+      <c r="L26" s="43">
+        <v>0</v>
+      </c>
+      <c r="M26" s="43">
+        <v>0</v>
+      </c>
+      <c r="N26" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A27" s="40"/>
+      <c r="B27" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="46">
+        <v>1</v>
+      </c>
+      <c r="D27" s="47">
+        <v>0</v>
+      </c>
+      <c r="E27" s="47">
+        <v>0</v>
+      </c>
+      <c r="F27" s="47">
+        <v>0</v>
+      </c>
+      <c r="G27" s="47">
+        <v>0</v>
+      </c>
+      <c r="H27" s="47">
+        <v>0</v>
+      </c>
+      <c r="I27" s="47">
+        <v>0</v>
+      </c>
+      <c r="J27" s="47">
+        <v>0</v>
+      </c>
+      <c r="K27" s="47">
+        <v>0</v>
+      </c>
+      <c r="L27" s="47">
+        <v>1</v>
+      </c>
+      <c r="M27" s="47">
+        <v>0</v>
+      </c>
+      <c r="N27" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A28" s="40"/>
+      <c r="B28" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="46">
+        <v>2</v>
+      </c>
+      <c r="D28" s="47">
+        <v>0</v>
+      </c>
+      <c r="E28" s="47">
+        <v>0</v>
+      </c>
+      <c r="F28" s="47">
+        <v>0</v>
+      </c>
+      <c r="G28" s="47">
+        <v>0</v>
+      </c>
+      <c r="H28" s="47">
+        <v>0</v>
+      </c>
+      <c r="I28" s="47">
+        <v>0</v>
+      </c>
+      <c r="J28" s="47">
+        <v>0</v>
+      </c>
+      <c r="K28" s="47">
+        <v>0</v>
+      </c>
+      <c r="L28" s="47">
+        <v>1</v>
+      </c>
+      <c r="M28" s="47">
+        <v>1</v>
+      </c>
+      <c r="N28" s="44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A29" s="40"/>
+      <c r="B29" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="46">
+        <v>3</v>
+      </c>
+      <c r="D29" s="47">
+        <v>0</v>
+      </c>
+      <c r="E29" s="47">
+        <v>0</v>
+      </c>
+      <c r="F29" s="47">
+        <v>0</v>
+      </c>
+      <c r="G29" s="47">
+        <v>0</v>
+      </c>
+      <c r="H29" s="47">
+        <v>0</v>
+      </c>
+      <c r="I29" s="47">
+        <v>0</v>
+      </c>
+      <c r="J29" s="47">
+        <v>0</v>
+      </c>
+      <c r="K29" s="47">
+        <v>0</v>
+      </c>
+      <c r="L29" s="47">
+        <v>0</v>
+      </c>
+      <c r="M29" s="47">
+        <v>2</v>
+      </c>
+      <c r="N29" s="44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A30" s="40"/>
+      <c r="B30" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="46">
+        <v>2</v>
+      </c>
+      <c r="D30" s="47">
+        <v>0</v>
+      </c>
+      <c r="E30" s="47">
+        <v>0</v>
+      </c>
+      <c r="F30" s="47">
+        <v>0</v>
+      </c>
+      <c r="G30" s="47">
+        <v>0</v>
+      </c>
+      <c r="H30" s="47">
+        <v>0</v>
+      </c>
+      <c r="I30" s="47">
+        <v>0</v>
+      </c>
+      <c r="J30" s="47">
+        <v>0</v>
+      </c>
+      <c r="K30" s="47">
+        <v>0</v>
+      </c>
+      <c r="L30" s="47">
+        <v>1</v>
+      </c>
+      <c r="M30" s="47">
+        <v>0</v>
+      </c>
+      <c r="N30" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A31" s="40"/>
+      <c r="B31" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="46">
+        <v>2</v>
+      </c>
+      <c r="D31" s="47">
+        <v>0</v>
+      </c>
+      <c r="E31" s="47">
+        <v>0</v>
+      </c>
+      <c r="F31" s="47">
+        <v>0</v>
+      </c>
+      <c r="G31" s="47">
+        <v>0</v>
+      </c>
+      <c r="H31" s="47">
+        <v>0</v>
+      </c>
+      <c r="I31" s="47">
+        <v>0</v>
+      </c>
+      <c r="J31" s="47">
+        <v>0</v>
+      </c>
+      <c r="K31" s="47">
+        <v>0</v>
+      </c>
+      <c r="L31" s="47">
+        <v>2</v>
+      </c>
+      <c r="M31" s="47">
+        <v>0</v>
+      </c>
+      <c r="N31" s="44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A32" s="40"/>
+      <c r="B32" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="46">
+        <v>2</v>
+      </c>
+      <c r="D32" s="47">
+        <v>0</v>
+      </c>
+      <c r="E32" s="47">
+        <v>0</v>
+      </c>
+      <c r="F32" s="47">
+        <v>0</v>
+      </c>
+      <c r="G32" s="47">
+        <v>0</v>
+      </c>
+      <c r="H32" s="47">
+        <v>0</v>
+      </c>
+      <c r="I32" s="47">
+        <v>0</v>
+      </c>
+      <c r="J32" s="47">
+        <v>0</v>
+      </c>
+      <c r="K32" s="47">
+        <v>1</v>
+      </c>
+      <c r="L32" s="47">
+        <v>0</v>
+      </c>
+      <c r="M32" s="47">
+        <v>0</v>
+      </c>
+      <c r="N32" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+    </row>
+    <row r="33" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="34" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="35" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="36" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B36" s="48" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="35">
-        <f t="shared" ref="N4:N32" si="1">SUM(D4:M4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="35">
+      <c r="C36" s="49">
+        <f>SUM(C4:C32)</f>
+        <v>61</v>
+      </c>
+      <c r="D36" s="49">
+        <f t="shared" ref="D36:M36" si="1">C36-SUM(D4:D32)</f>
+        <v>57</v>
+      </c>
+      <c r="E36" s="49">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="F36" s="49">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="G36" s="49">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H36" s="49">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I36" s="49">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J36" s="49">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K36" s="49">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="L36" s="49">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M36" s="49">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="35">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="J8" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="N8" s="35">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="J9" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="L9" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M9" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="35">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="D10" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="J10" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="K10" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="L10" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="M10" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="35">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M11" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="K12" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="L12" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M12" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="35">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D13" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="J13" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="K13" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="L13" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M13" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N13" s="35">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K14" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="L14" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="N14" s="35">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I15" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="35">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="M16" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="35">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I17" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K17" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="N17" s="35">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D18" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K18" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="L18" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="M18" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="N18" s="35">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="35">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I20" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="K20" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="L20" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="35">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K21" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="M21" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K22" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="L22" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="35">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K23" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="L23" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="L24" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="M24" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I25" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="K25" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="M25" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="I26" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="K26" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="L26" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="M26" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I27" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K27" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L27" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="M27" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="N27" s="45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I28" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L28" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="M28" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="N28" s="45">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="47">
-        <v>3.0</v>
-      </c>
-      <c r="D29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="M29" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="N29" s="45">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="D30" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="E30" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G30" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I30" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L30" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="M30" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="N30" s="45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L31" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="M31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="N31" s="45">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="E32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K32" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="L32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="M32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="N32" s="45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="49" t="s">
+    <row r="37" spans="2:13" ht="12.75">
+      <c r="B37" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C37" s="49">
         <f>SUM(C4:C32)</f>
         <v>61</v>
       </c>
-      <c r="D36" s="50">
-        <f t="shared" ref="D36:M36" si="2">C36-SUM(D4:D32)</f>
-        <v>57</v>
-      </c>
-      <c r="E36" s="50">
+      <c r="D37" s="49">
+        <f t="shared" ref="D37:M37" si="2">C37-(SUM(C4:C32)/10)</f>
+        <v>54.9</v>
+      </c>
+      <c r="E37" s="49">
         <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="F36" s="50">
+        <v>54.5</v>
+      </c>
+      <c r="F37" s="49">
         <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="G36" s="50">
+        <v>54.1</v>
+      </c>
+      <c r="G37" s="49">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="H36" s="50">
+        <v>53.9</v>
+      </c>
+      <c r="H37" s="49">
         <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="I36" s="50">
+        <v>53.8</v>
+      </c>
+      <c r="I37" s="49">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="J36" s="50">
+        <v>53.3</v>
+      </c>
+      <c r="J37" s="49">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="K36" s="50">
+        <v>52.9</v>
+      </c>
+      <c r="K37" s="49">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L36" s="50">
+        <v>52.4</v>
+      </c>
+      <c r="L37" s="49">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M36" s="50">
+        <v>51.3</v>
+      </c>
+      <c r="M37" s="49">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="49" t="s">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="39" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="42" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="43" spans="2:13" ht="21.75" customHeight="1">
+      <c r="G43" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="50">
-        <f>SUM(C4:C32)</f>
-        <v>61</v>
-      </c>
-      <c r="D37" s="50">
-        <f t="shared" ref="D37:M37" si="3">C37-(SUM(C4:C32)/10)</f>
-        <v>54.9</v>
-      </c>
-      <c r="E37" s="50">
-        <f t="shared" si="3"/>
-        <v>54.5</v>
-      </c>
-      <c r="F37" s="50">
-        <f t="shared" si="3"/>
-        <v>54.1</v>
-      </c>
-      <c r="G37" s="50">
-        <f t="shared" si="3"/>
-        <v>53.9</v>
-      </c>
-      <c r="H37" s="50">
-        <f t="shared" si="3"/>
-        <v>53.8</v>
-      </c>
-      <c r="I37" s="50">
-        <f t="shared" si="3"/>
-        <v>53.3</v>
-      </c>
-      <c r="J37" s="50">
-        <f t="shared" si="3"/>
-        <v>52.9</v>
-      </c>
-      <c r="K37" s="50">
-        <f t="shared" si="3"/>
-        <v>52.4</v>
-      </c>
-      <c r="L37" s="50">
-        <f t="shared" si="3"/>
-        <v>51.3</v>
-      </c>
-      <c r="M37" s="50">
-        <f t="shared" si="3"/>
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="21.75" customHeight="1">
-      <c r="G43" s="51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+    </row>
+    <row r="44" spans="2:13" ht="15.75" customHeight="1">
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+    </row>
+    <row r="45" spans="2:13" ht="15.75" customHeight="1">
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+    </row>
+    <row r="46" spans="2:13" ht="15.75" customHeight="1">
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+    </row>
+    <row r="47" spans="2:13" ht="15.75" customHeight="1">
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+    </row>
+    <row r="48" spans="2:13" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -6928,12 +7089,11 @@
   <mergeCells count="1">
     <mergeCell ref="G43:I47"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>